--- a/gapminder_dirty_labels.xlsx
+++ b/gapminder_dirty_labels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="165">
   <si>
     <t>country</t>
   </si>
@@ -509,12 +509,6 @@
   <si>
     <t>2007</t>
   </si>
-  <si>
-    <t>duplicated_n</t>
-  </si>
-  <si>
-    <t>nmiss</t>
-  </si>
 </sst>
 </file>
 
@@ -559,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q427"/>
+  <dimension ref="A1:O427"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -608,12 +602,6 @@
       <c r="O1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -661,12 +649,6 @@
       <c r="O2" s="1">
         <v>974.58033839999996</v>
       </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -714,12 +696,6 @@
       <c r="O3" s="1">
         <v>43.828000000000003</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -767,12 +743,6 @@
       <c r="O4" s="1">
         <v>31889923</v>
       </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -820,12 +790,6 @@
       <c r="O5" s="1">
         <v>5937.0295260000003</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -873,12 +837,6 @@
       <c r="O6" s="1">
         <v>76.423000000000002</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -926,12 +884,6 @@
       <c r="O7" s="1">
         <v>3600523</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -979,12 +931,6 @@
       <c r="O8" s="1">
         <v>6223.3674650000003</v>
       </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1032,12 +978,6 @@
       <c r="O9" s="1">
         <v>72.301000000000002</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1085,12 +1025,6 @@
       <c r="O10" s="1">
         <v>33333216</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1138,12 +1072,6 @@
       <c r="O11" s="1">
         <v>4797.2312670000001</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1191,12 +1119,6 @@
       <c r="O12" s="1">
         <v>42.731000000000002</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1244,12 +1166,6 @@
       <c r="O13" s="1">
         <v>12420476</v>
       </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1297,12 +1213,6 @@
       <c r="O14" s="1">
         <v>12779.379639999999</v>
       </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1350,12 +1260,6 @@
       <c r="O15" s="1">
         <v>75.319999999999993</v>
       </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1403,12 +1307,6 @@
       <c r="O16" s="1">
         <v>40301927</v>
       </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1456,12 +1354,6 @@
       <c r="O17" s="1">
         <v>34435.367440000002</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1509,12 +1401,6 @@
       <c r="O18" s="1">
         <v>81.234999999999999</v>
       </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1562,12 +1448,6 @@
       <c r="O19" s="1">
         <v>20434176</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1615,12 +1495,6 @@
       <c r="O20" s="1">
         <v>36126.492700000003</v>
       </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1668,12 +1542,6 @@
       <c r="O21" s="1">
         <v>79.828999999999994</v>
       </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1721,12 +1589,6 @@
       <c r="O22" s="1">
         <v>8199783</v>
       </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1774,12 +1636,6 @@
       <c r="O23" s="1">
         <v>29796.048340000001</v>
       </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1827,12 +1683,6 @@
       <c r="O24" s="1">
         <v>75.635000000000005</v>
       </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1880,12 +1730,6 @@
       <c r="O25" s="1">
         <v>708573</v>
       </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1933,12 +1777,6 @@
       <c r="O26" s="1">
         <v>1391.253792</v>
       </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1986,12 +1824,6 @@
       <c r="O27" s="1">
         <v>64.061999999999998</v>
       </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2039,12 +1871,6 @@
       <c r="O28" s="1">
         <v>150448339</v>
       </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2092,12 +1918,6 @@
       <c r="O29" s="1">
         <v>33692.605080000001</v>
       </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2145,12 +1965,6 @@
       <c r="O30" s="1">
         <v>79.441000000000003</v>
       </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2198,12 +2012,6 @@
       <c r="O31" s="1">
         <v>10392226</v>
       </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2251,12 +2059,6 @@
       <c r="O32" s="1">
         <v>1441.2848730000001</v>
       </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2304,12 +2106,6 @@
       <c r="O33" s="1">
         <v>56.728000000000002</v>
       </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2357,12 +2153,6 @@
       <c r="O34" s="1">
         <v>8078314</v>
       </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2410,12 +2200,6 @@
       <c r="O35" s="1">
         <v>3822.137084</v>
       </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2463,12 +2247,6 @@
       <c r="O36" s="1">
         <v>65.554000000000002</v>
       </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -2516,12 +2294,6 @@
       <c r="O37" s="1">
         <v>9119152</v>
       </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -2569,12 +2341,6 @@
       <c r="O38" s="1">
         <v>7446.2988029999997</v>
       </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -2622,12 +2388,6 @@
       <c r="O39" s="1">
         <v>74.852000000000004</v>
       </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -2675,12 +2435,6 @@
       <c r="O40" s="1">
         <v>4552198</v>
       </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -2728,12 +2482,6 @@
       <c r="O41" s="1">
         <v>12569.851769999999</v>
       </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -2781,12 +2529,6 @@
       <c r="O42" s="1">
         <v>50.728000000000002</v>
       </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -2834,12 +2576,6 @@
       <c r="O43" s="1">
         <v>1639131</v>
       </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -2887,12 +2623,6 @@
       <c r="O44" s="1">
         <v>9065.8008250000003</v>
       </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -2940,12 +2670,6 @@
       <c r="O45" s="1">
         <v>72.390000000000001</v>
       </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -2993,12 +2717,6 @@
       <c r="O46" s="1">
         <v>190010647</v>
       </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -3046,12 +2764,6 @@
       <c r="O47" s="1">
         <v>10680.792820000001</v>
       </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -3099,12 +2811,6 @@
       <c r="O48" s="1">
         <v>73.004999999999995</v>
       </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -3152,12 +2858,6 @@
       <c r="O49" s="1">
         <v>7322858</v>
       </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -3205,12 +2905,6 @@
       <c r="O50" s="1">
         <v>1217.0329939999999</v>
       </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -3258,12 +2952,6 @@
       <c r="O51" s="1">
         <v>52.295000000000002</v>
       </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -3311,12 +2999,6 @@
       <c r="O52" s="1">
         <v>14326203</v>
       </c>
-      <c r="P52" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -3362,12 +3044,6 @@
       <c r="O53" s="1">
         <v>430.07069159999998</v>
       </c>
-      <c r="P53" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -3413,12 +3089,6 @@
       <c r="O54" s="1">
         <v>49.579999999999998</v>
       </c>
-      <c r="P54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -3464,12 +3134,6 @@
       <c r="O55" s="1">
         <v>8390505</v>
       </c>
-      <c r="P55" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -3517,12 +3181,6 @@
       <c r="O56" s="1">
         <v>1713.7786860000001</v>
       </c>
-      <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -3570,12 +3228,6 @@
       <c r="O57" s="1">
         <v>59.722999999999999</v>
       </c>
-      <c r="P57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -3623,12 +3275,6 @@
       <c r="O58" s="1">
         <v>14131858</v>
       </c>
-      <c r="P58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -3676,12 +3322,6 @@
       <c r="O59" s="1">
         <v>2042.0952400000001</v>
       </c>
-      <c r="P59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -3729,12 +3369,6 @@
       <c r="O60" s="1">
         <v>50.43</v>
       </c>
-      <c r="P60" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -3782,12 +3416,6 @@
       <c r="O61" s="1">
         <v>17696293</v>
       </c>
-      <c r="P61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -3835,12 +3463,6 @@
       <c r="O62" s="1">
         <v>36319.235009999997</v>
       </c>
-      <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -3888,12 +3510,6 @@
       <c r="O63" s="1">
         <v>80.653000000000006</v>
       </c>
-      <c r="P63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -3941,12 +3557,6 @@
       <c r="O64" s="1">
         <v>33390141</v>
       </c>
-      <c r="P64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -3994,12 +3604,6 @@
       <c r="O65" s="1">
         <v>706.01653699999997</v>
       </c>
-      <c r="P65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -4047,12 +3651,6 @@
       <c r="O66" s="1">
         <v>44.741</v>
       </c>
-      <c r="P66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -4099,12 +3697,6 @@
       </c>
       <c r="O67" s="1">
         <v>4369038</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4149,12 +3741,6 @@
       <c r="O68" s="1">
         <v>1704.0637240000001</v>
       </c>
-      <c r="P68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -4198,12 +3784,6 @@
       <c r="O69" s="1">
         <v>50.651000000000003</v>
       </c>
-      <c r="P69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -4247,12 +3827,6 @@
       <c r="O70" s="1">
         <v>10238807</v>
       </c>
-      <c r="P70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -4300,12 +3874,6 @@
       <c r="O71" s="1">
         <v>13171.638849999999</v>
       </c>
-      <c r="P71" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -4353,12 +3921,6 @@
       <c r="O72" s="1">
         <v>78.552999999999997</v>
       </c>
-      <c r="P72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -4406,12 +3968,6 @@
       <c r="O73" s="1">
         <v>16284741</v>
       </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -4459,12 +4015,6 @@
       <c r="O74" s="1">
         <v>4959.1148540000004</v>
       </c>
-      <c r="P74" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -4512,12 +4062,6 @@
       <c r="O75" s="1">
         <v>72.960999999999999</v>
       </c>
-      <c r="P75" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -4565,12 +4109,6 @@
       <c r="O76" s="1">
         <v>1318683096</v>
       </c>
-      <c r="P76" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -4618,12 +4156,6 @@
       <c r="O77" s="1">
         <v>7006.5804189999999</v>
       </c>
-      <c r="P77" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -4671,12 +4203,6 @@
       <c r="O78" s="1">
         <v>72.888999999999996</v>
       </c>
-      <c r="P78" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -4724,12 +4250,6 @@
       <c r="O79" s="1">
         <v>44227550</v>
       </c>
-      <c r="P79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -4776,12 +4296,6 @@
       </c>
       <c r="O80" s="1">
         <v>986.14787920000003</v>
-      </c>
-      <c r="P80" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4818,12 +4332,6 @@
       <c r="O81" s="1">
         <v>65.152000000000001</v>
       </c>
-      <c r="P81" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -4871,12 +4379,6 @@
       <c r="O82" s="1">
         <v>710960</v>
       </c>
-      <c r="P82" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -4924,12 +4426,6 @@
       <c r="O83" s="1">
         <v>277.55185870000003</v>
       </c>
-      <c r="P83" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -4977,12 +4473,6 @@
       <c r="O84" s="1">
         <v>46.462000000000003</v>
       </c>
-      <c r="P84" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -5030,12 +4520,6 @@
       <c r="O85" s="1">
         <v>64606759</v>
       </c>
-      <c r="P85" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5083,12 +4567,6 @@
       <c r="O86" s="1">
         <v>3632.5577979999998</v>
       </c>
-      <c r="P86" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -5136,12 +4614,6 @@
       <c r="O87" s="1">
         <v>55.322000000000003</v>
       </c>
-      <c r="P87" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -5189,12 +4661,6 @@
       <c r="O88" s="1">
         <v>3800610</v>
       </c>
-      <c r="P88" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -5242,12 +4708,6 @@
       <c r="O89" s="1">
         <v>9645.06142</v>
       </c>
-      <c r="P89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -5295,12 +4755,6 @@
       <c r="O90" s="1">
         <v>78.781999999999996</v>
       </c>
-      <c r="P90" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -5348,12 +4802,6 @@
       <c r="O91" s="1">
         <v>4133884</v>
       </c>
-      <c r="P91" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -5401,12 +4849,6 @@
       <c r="O92" s="1">
         <v>1544.7501119999999</v>
       </c>
-      <c r="P92" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -5454,12 +4896,6 @@
       <c r="O93" s="1">
         <v>48.328000000000003</v>
       </c>
-      <c r="P93" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -5507,12 +4943,6 @@
       <c r="O94" s="1">
         <v>18013409</v>
       </c>
-      <c r="P94" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -5560,12 +4990,6 @@
       <c r="O95" s="1">
         <v>14619.22272</v>
       </c>
-      <c r="P95" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -5613,12 +5037,6 @@
       <c r="O96" s="1">
         <v>75.748000000000005</v>
       </c>
-      <c r="P96" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -5666,12 +5084,6 @@
       <c r="O97" s="1">
         <v>4493312</v>
       </c>
-      <c r="P97" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -5719,12 +5131,6 @@
       <c r="O98" s="1">
         <v>8948.1029230000004</v>
       </c>
-      <c r="P98" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -5772,12 +5178,6 @@
       <c r="O99" s="1">
         <v>78.272999999999996</v>
       </c>
-      <c r="P99" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -5825,12 +5225,6 @@
       <c r="O100" s="1">
         <v>11416987</v>
       </c>
-      <c r="P100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -5878,12 +5272,6 @@
       <c r="O101" s="1">
         <v>22833.308509999999</v>
       </c>
-      <c r="P101" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -5931,12 +5319,6 @@
       <c r="O102" s="1">
         <v>76.486000000000004</v>
       </c>
-      <c r="P102" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -5984,12 +5366,6 @@
       <c r="O103" s="1">
         <v>10228744</v>
       </c>
-      <c r="P103" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -6037,12 +5413,6 @@
       <c r="O104" s="1">
         <v>35278.418740000001</v>
       </c>
-      <c r="P104" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -6090,12 +5460,6 @@
       <c r="O105" s="1">
         <v>78.331999999999994</v>
       </c>
-      <c r="P105" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -6143,12 +5507,6 @@
       <c r="O106" s="1">
         <v>5468120</v>
       </c>
-      <c r="P106" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -6196,12 +5554,6 @@
       <c r="O107" s="1">
         <v>2082.4815669999998</v>
       </c>
-      <c r="P107" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -6249,12 +5601,6 @@
       <c r="O108" s="1">
         <v>54.790999999999997</v>
       </c>
-      <c r="P108" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -6302,12 +5648,6 @@
       <c r="O109" s="1">
         <v>496374</v>
       </c>
-      <c r="P109" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -6355,12 +5695,6 @@
       <c r="O110" s="1">
         <v>6025.3747519999997</v>
       </c>
-      <c r="P110" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -6408,12 +5742,6 @@
       <c r="O111" s="1">
         <v>72.234999999999999</v>
       </c>
-      <c r="P111" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -6461,12 +5789,6 @@
       <c r="O112" s="1">
         <v>9319622</v>
       </c>
-      <c r="P112" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -6514,12 +5836,6 @@
       <c r="O113" s="1">
         <v>6873.262326</v>
       </c>
-      <c r="P113" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -6567,12 +5883,6 @@
       <c r="O114" s="1">
         <v>74.994</v>
       </c>
-      <c r="P114" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -6620,12 +5930,6 @@
       <c r="O115" s="1">
         <v>13755680</v>
       </c>
-      <c r="P115" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -6673,12 +5977,6 @@
       <c r="O116" s="1">
         <v>5581.1809979999998</v>
       </c>
-      <c r="P116" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -6726,12 +6024,6 @@
       <c r="O117" s="1">
         <v>71.337999999999994</v>
       </c>
-      <c r="P117" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -6779,12 +6071,6 @@
       <c r="O118" s="1">
         <v>80264543</v>
       </c>
-      <c r="P118" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -6832,12 +6118,6 @@
       <c r="O119" s="1">
         <v>5728.3535140000004</v>
       </c>
-      <c r="P119" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -6885,12 +6165,6 @@
       <c r="O120" s="1">
         <v>71.878</v>
       </c>
-      <c r="P120" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -6938,12 +6212,6 @@
       <c r="O121" s="1">
         <v>6939688</v>
       </c>
-      <c r="P121" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -6991,12 +6259,6 @@
       <c r="O122" s="1">
         <v>12154.089749999999</v>
       </c>
-      <c r="P122" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -7044,12 +6306,6 @@
       <c r="O123" s="1">
         <v>51.579000000000001</v>
       </c>
-      <c r="P123" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -7097,12 +6353,6 @@
       <c r="O124" s="1">
         <v>551201</v>
       </c>
-      <c r="P124" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -7150,12 +6400,6 @@
       <c r="O125" s="1">
         <v>641.36952359999998</v>
       </c>
-      <c r="P125" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -7203,12 +6447,6 @@
       <c r="O126" s="1">
         <v>58.039999999999999</v>
       </c>
-      <c r="P126" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -7255,12 +6493,6 @@
       </c>
       <c r="O127" s="1">
         <v>4906585</v>
-      </c>
-      <c r="P127" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -7303,12 +6535,6 @@
       <c r="O128" s="1">
         <v>690.80557590000001</v>
       </c>
-      <c r="P128" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -7350,12 +6576,6 @@
       <c r="O129" s="1">
         <v>52.947000000000003</v>
       </c>
-      <c r="P129" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -7397,12 +6617,6 @@
       <c r="O130" s="1">
         <v>76511887</v>
       </c>
-      <c r="P130" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -7450,12 +6664,6 @@
       <c r="O131" s="1">
         <v>33207.0844</v>
       </c>
-      <c r="P131" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -7503,12 +6711,6 @@
       <c r="O132" s="1">
         <v>79.313000000000002</v>
       </c>
-      <c r="P132" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q132" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -7556,12 +6758,6 @@
       <c r="O133" s="1">
         <v>5238460</v>
       </c>
-      <c r="P133" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -7609,12 +6805,6 @@
       <c r="O134" s="1">
         <v>30470.0167</v>
       </c>
-      <c r="P134" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -7662,12 +6852,6 @@
       <c r="O135" s="1">
         <v>80.656999999999996</v>
       </c>
-      <c r="P135" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -7715,12 +6899,6 @@
       <c r="O136" s="1">
         <v>61083916</v>
       </c>
-      <c r="P136" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q136" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -7768,12 +6946,6 @@
       <c r="O137" s="1">
         <v>13206.48452</v>
       </c>
-      <c r="P137" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q137" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -7821,12 +6993,6 @@
       <c r="O138" s="1">
         <v>56.734999999999999</v>
       </c>
-      <c r="P138" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q138" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -7873,12 +7039,6 @@
       </c>
       <c r="O139" s="1">
         <v>1454867</v>
-      </c>
-      <c r="P139" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q139" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -7917,12 +7077,6 @@
       <c r="O140" s="1">
         <v>752.74972649999995</v>
       </c>
-      <c r="P140" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q140" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -7960,12 +7114,6 @@
       <c r="O141" s="1">
         <v>59.448</v>
       </c>
-      <c r="P141" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q141" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -8003,12 +7151,6 @@
       <c r="O142" s="1">
         <v>1688359</v>
       </c>
-      <c r="P142" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -8056,12 +7198,6 @@
       <c r="O143" s="1">
         <v>32170.37442</v>
       </c>
-      <c r="P143" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -8109,12 +7245,6 @@
       <c r="O144" s="1">
         <v>79.406000000000006</v>
       </c>
-      <c r="P144" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -8162,12 +7292,6 @@
       <c r="O145" s="1">
         <v>82400996</v>
       </c>
-      <c r="P145" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -8215,12 +7339,6 @@
       <c r="O146" s="1">
         <v>1327.6089099999999</v>
       </c>
-      <c r="P146" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -8268,12 +7386,6 @@
       <c r="O147" s="1">
         <v>60.021999999999998</v>
       </c>
-      <c r="P147" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -8321,12 +7433,6 @@
       <c r="O148" s="1">
         <v>22873338</v>
       </c>
-      <c r="P148" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q148" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -8374,12 +7480,6 @@
       <c r="O149" s="1">
         <v>27538.41188</v>
       </c>
-      <c r="P149" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q149" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -8427,12 +7527,6 @@
       <c r="O150" s="1">
         <v>79.483000000000004</v>
       </c>
-      <c r="P150" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q150" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -8480,12 +7574,6 @@
       <c r="O151" s="1">
         <v>10706290</v>
       </c>
-      <c r="P151" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -8533,12 +7621,6 @@
       <c r="O152" s="1">
         <v>5186.0500030000003</v>
       </c>
-      <c r="P152" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q152" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -8586,12 +7668,6 @@
       <c r="O153" s="1">
         <v>70.259</v>
       </c>
-      <c r="P153" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q153" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -8639,12 +7715,6 @@
       <c r="O154" s="1">
         <v>12572928</v>
       </c>
-      <c r="P154" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q154" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -8692,12 +7762,6 @@
       <c r="O155" s="1">
         <v>942.6542111</v>
       </c>
-      <c r="P155" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q155" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -8745,12 +7809,6 @@
       <c r="O156" s="1">
         <v>56.006999999999998</v>
       </c>
-      <c r="P156" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -8798,12 +7856,6 @@
       <c r="O157" s="1">
         <v>9947814</v>
       </c>
-      <c r="P157" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q157" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -8851,12 +7903,6 @@
       <c r="O158" s="1">
         <v>579.23174300000005</v>
       </c>
-      <c r="P158" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q158" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -8904,12 +7950,6 @@
       <c r="O159" s="1">
         <v>46.387999999999998</v>
       </c>
-      <c r="P159" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -8957,12 +7997,6 @@
       <c r="O160" s="1">
         <v>1472041</v>
       </c>
-      <c r="P160" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -9010,12 +8044,6 @@
       <c r="O161" s="1">
         <v>1201.637154</v>
       </c>
-      <c r="P161" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -9063,12 +8091,6 @@
       <c r="O162" s="1">
         <v>60.915999999999997</v>
       </c>
-      <c r="P162" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -9116,12 +8138,6 @@
       <c r="O163" s="1">
         <v>8502814</v>
       </c>
-      <c r="P163" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -9169,12 +8185,6 @@
       <c r="O164" s="1">
         <v>3548.3308459999998</v>
       </c>
-      <c r="P164" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -9222,12 +8232,6 @@
       <c r="O165" s="1">
         <v>70.197999999999993</v>
       </c>
-      <c r="P165" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q165" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -9275,12 +8279,6 @@
       <c r="O166" s="1">
         <v>7483763</v>
       </c>
-      <c r="P166" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q166" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -9328,12 +8326,6 @@
       <c r="O167" s="1">
         <v>39724.978669999997</v>
       </c>
-      <c r="P167" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q167" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -9381,12 +8373,6 @@
       <c r="O168" s="1">
         <v>82.207999999999998</v>
       </c>
-      <c r="P168" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q168" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -9434,12 +8420,6 @@
       <c r="O169" s="1">
         <v>6980412</v>
       </c>
-      <c r="P169" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q169" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -9487,12 +8467,6 @@
       <c r="O170" s="1">
         <v>18008.944439999999</v>
       </c>
-      <c r="P170" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q170" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -9540,12 +8514,6 @@
       <c r="O171" s="1">
         <v>73.337999999999994</v>
       </c>
-      <c r="P171" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -9593,12 +8561,6 @@
       <c r="O172" s="1">
         <v>9956108</v>
       </c>
-      <c r="P172" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q172" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -9646,12 +8608,6 @@
       <c r="O173" s="1">
         <v>36180.789190000003</v>
       </c>
-      <c r="P173" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q173" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -9699,12 +8655,6 @@
       <c r="O174" s="1">
         <v>81.757000000000005</v>
       </c>
-      <c r="P174" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q174" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -9752,12 +8702,6 @@
       <c r="O175" s="1">
         <v>301931</v>
       </c>
-      <c r="P175" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q175" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -9805,12 +8749,6 @@
       <c r="O176" s="1">
         <v>2452.210407</v>
       </c>
-      <c r="P176" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q176" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -9858,12 +8796,6 @@
       <c r="O177" s="1">
         <v>64.697999999999993</v>
       </c>
-      <c r="P177" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q177" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -9911,12 +8843,6 @@
       <c r="O178" s="1">
         <v>1110396331</v>
       </c>
-      <c r="P178" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q178" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -9964,12 +8890,6 @@
       <c r="O179" s="1">
         <v>3540.6515639999998</v>
       </c>
-      <c r="P179" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q179" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
@@ -10017,12 +8937,6 @@
       <c r="O180" s="1">
         <v>70.650000000000006</v>
       </c>
-      <c r="P180" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q180" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -10070,12 +8984,6 @@
       <c r="O181" s="1">
         <v>223547000</v>
       </c>
-      <c r="P181" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q181" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -10123,12 +9031,6 @@
       <c r="O182" s="1">
         <v>11605.71449</v>
       </c>
-      <c r="P182" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q182" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
@@ -10176,12 +9078,6 @@
       <c r="O183" s="1">
         <v>70.963999999999999</v>
       </c>
-      <c r="P183" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q183" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
@@ -10229,12 +9125,6 @@
       <c r="O184" s="1">
         <v>69453570</v>
       </c>
-      <c r="P184" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q184" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
@@ -10282,12 +9172,6 @@
       <c r="O185" s="1">
         <v>4471.0619059999999</v>
       </c>
-      <c r="P185" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q185" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
@@ -10335,12 +9219,6 @@
       <c r="O186" s="1">
         <v>59.545000000000002</v>
       </c>
-      <c r="P186" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -10388,12 +9266,6 @@
       <c r="O187" s="1">
         <v>27499638</v>
       </c>
-      <c r="P187" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
@@ -10441,12 +9313,6 @@
       <c r="O188" s="1">
         <v>40675.996350000001</v>
       </c>
-      <c r="P188" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
@@ -10494,12 +9360,6 @@
       <c r="O189" s="1">
         <v>78.885000000000005</v>
       </c>
-      <c r="P189" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q189" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
@@ -10547,12 +9407,6 @@
       <c r="O190" s="1">
         <v>4109086</v>
       </c>
-      <c r="P190" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q190" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -10600,12 +9454,6 @@
       <c r="O191" s="1">
         <v>25523.277099999999</v>
       </c>
-      <c r="P191" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q191" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
@@ -10653,12 +9501,6 @@
       <c r="O192" s="1">
         <v>80.745000000000005</v>
       </c>
-      <c r="P192" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q192" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
@@ -10706,12 +9548,6 @@
       <c r="O193" s="1">
         <v>6426679</v>
       </c>
-      <c r="P193" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q193" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
@@ -10759,12 +9595,6 @@
       <c r="O194" s="1">
         <v>28569.719700000001</v>
       </c>
-      <c r="P194" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q194" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
@@ -10812,12 +9642,6 @@
       <c r="O195" s="1">
         <v>80.546000000000006</v>
       </c>
-      <c r="P195" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
@@ -10865,12 +9689,6 @@
       <c r="O196" s="1">
         <v>58147733</v>
       </c>
-      <c r="P196" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q196" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
@@ -10918,12 +9736,6 @@
       <c r="O197" s="1">
         <v>7320.8802619999997</v>
       </c>
-      <c r="P197" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q197" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
@@ -10971,12 +9783,6 @@
       <c r="O198" s="1">
         <v>72.566999999999993</v>
       </c>
-      <c r="P198" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q198" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
@@ -11024,12 +9830,6 @@
       <c r="O199" s="1">
         <v>2780132</v>
       </c>
-      <c r="P199" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q199" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
@@ -11077,12 +9877,6 @@
       <c r="O200" s="1">
         <v>31656.068060000001</v>
       </c>
-      <c r="P200" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q200" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
@@ -11130,12 +9924,6 @@
       <c r="O201" s="1">
         <v>82.602999999999994</v>
       </c>
-      <c r="P201" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q201" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
@@ -11183,12 +9971,6 @@
       <c r="O202" s="1">
         <v>127467972</v>
       </c>
-      <c r="P202" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q202" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -11236,12 +10018,6 @@
       <c r="O203" s="1">
         <v>4519.4611709999999</v>
       </c>
-      <c r="P203" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q203" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -11289,12 +10065,6 @@
       <c r="O204" s="1">
         <v>72.534999999999997</v>
       </c>
-      <c r="P204" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -11342,12 +10112,6 @@
       <c r="O205" s="1">
         <v>6053193</v>
       </c>
-      <c r="P205" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q205" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
@@ -11395,12 +10159,6 @@
       <c r="O206" s="1">
         <v>1463.249282</v>
       </c>
-      <c r="P206" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q206" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
@@ -11448,12 +10206,6 @@
       <c r="O207" s="1">
         <v>54.109999999999999</v>
       </c>
-      <c r="P207" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q207" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
@@ -11501,12 +10253,6 @@
       <c r="O208" s="1">
         <v>35610177</v>
       </c>
-      <c r="P208" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q208" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
@@ -11554,12 +10300,6 @@
       <c r="O209" s="1">
         <v>1593.06548</v>
       </c>
-      <c r="P209" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q209" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
@@ -11607,12 +10347,6 @@
       <c r="O210" s="1">
         <v>67.296999999999997</v>
       </c>
-      <c r="P210" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q210" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -11660,12 +10394,6 @@
       <c r="O211" s="1">
         <v>23301725</v>
       </c>
-      <c r="P211" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q211" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
@@ -11713,12 +10441,6 @@
       <c r="O212" s="1">
         <v>23348.139729999999</v>
       </c>
-      <c r="P212" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q212" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
@@ -11766,12 +10488,6 @@
       <c r="O213" s="1">
         <v>78.623000000000005</v>
       </c>
-      <c r="P213" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q213" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
@@ -11819,12 +10535,6 @@
       <c r="O214" s="1">
         <v>49044790</v>
       </c>
-      <c r="P214" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q214" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
@@ -11872,12 +10582,6 @@
       <c r="O215" s="1">
         <v>47306.989780000004</v>
       </c>
-      <c r="P215" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q215" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
@@ -11925,12 +10629,6 @@
       <c r="O216" s="1">
         <v>77.587999999999994</v>
       </c>
-      <c r="P216" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q216" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
@@ -11978,12 +10676,6 @@
       <c r="O217" s="1">
         <v>2505559</v>
       </c>
-      <c r="P217" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q217" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
@@ -12031,12 +10723,6 @@
       <c r="O218" s="1">
         <v>10461.05868</v>
       </c>
-      <c r="P218" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q218" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -12084,12 +10770,6 @@
       <c r="O219" s="1">
         <v>71.992999999999995</v>
       </c>
-      <c r="P219" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q219" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
@@ -12137,12 +10817,6 @@
       <c r="O220" s="1">
         <v>3921278</v>
       </c>
-      <c r="P220" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q220" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
@@ -12190,12 +10864,6 @@
       <c r="O221" s="1">
         <v>1569.3314419999999</v>
       </c>
-      <c r="P221" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q221" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
@@ -12243,12 +10911,6 @@
       <c r="O222" s="1">
         <v>42.591999999999999</v>
       </c>
-      <c r="P222" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q222" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
@@ -12296,12 +10958,6 @@
       <c r="O223" s="1">
         <v>2012649</v>
       </c>
-      <c r="P223" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q223" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
@@ -12349,12 +11005,6 @@
       <c r="O224" s="1">
         <v>414.5073415</v>
       </c>
-      <c r="P224" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q224" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
@@ -12402,12 +11052,6 @@
       <c r="O225" s="1">
         <v>45.677999999999997</v>
       </c>
-      <c r="P225" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q225" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
@@ -12455,12 +11099,6 @@
       <c r="O226" s="1">
         <v>3193942</v>
       </c>
-      <c r="P226" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q226" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
@@ -12508,12 +11146,6 @@
       <c r="O227" s="1">
         <v>12057.49928</v>
       </c>
-      <c r="P227" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q227" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
@@ -12561,12 +11193,6 @@
       <c r="O228" s="1">
         <v>73.951999999999998</v>
       </c>
-      <c r="P228" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q228" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -12614,12 +11240,6 @@
       <c r="O229" s="1">
         <v>6036914</v>
       </c>
-      <c r="P229" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q229" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
@@ -12667,12 +11287,6 @@
       <c r="O230" s="1">
         <v>1044.7701259999999</v>
       </c>
-      <c r="P230" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q230" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
@@ -12720,12 +11334,6 @@
       <c r="O231" s="1">
         <v>59.442999999999998</v>
       </c>
-      <c r="P231" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q231" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
@@ -12773,12 +11381,6 @@
       <c r="O232" s="1">
         <v>19167654</v>
       </c>
-      <c r="P232" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q232" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
@@ -12826,12 +11428,6 @@
       <c r="O233" s="1">
         <v>759.34991009999999</v>
       </c>
-      <c r="P233" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q233" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
@@ -12879,12 +11475,6 @@
       <c r="O234" s="1">
         <v>48.302999999999997</v>
       </c>
-      <c r="P234" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q234" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
@@ -12932,12 +11522,6 @@
       <c r="O235" s="1">
         <v>13327079</v>
       </c>
-      <c r="P235" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q235" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
@@ -12985,12 +11569,6 @@
       <c r="O236" s="1">
         <v>12451.6558</v>
       </c>
-      <c r="P236" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q236" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
@@ -13038,12 +11616,6 @@
       <c r="O237" s="1">
         <v>74.241</v>
       </c>
-      <c r="P237" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q237" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
@@ -13091,12 +11663,6 @@
       <c r="O238" s="1">
         <v>24821286</v>
       </c>
-      <c r="P238" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q238" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
@@ -13144,12 +11710,6 @@
       <c r="O239" s="1">
         <v>1042.581557</v>
       </c>
-      <c r="P239" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q239" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
@@ -13197,12 +11757,6 @@
       <c r="O240" s="1">
         <v>54.466999999999999</v>
       </c>
-      <c r="P240" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q240" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
@@ -13250,12 +11804,6 @@
       <c r="O241" s="1">
         <v>12031795</v>
       </c>
-      <c r="P241" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q241" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
@@ -13303,12 +11851,6 @@
       <c r="O242" s="1">
         <v>1803.151496</v>
       </c>
-      <c r="P242" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q242" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -13356,12 +11898,6 @@
       <c r="O243" s="1">
         <v>64.164000000000001</v>
       </c>
-      <c r="P243" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q243" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -13409,12 +11945,6 @@
       <c r="O244" s="1">
         <v>3270065</v>
       </c>
-      <c r="P244" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q244" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -13462,12 +11992,6 @@
       <c r="O245" s="1">
         <v>10956.991120000001</v>
       </c>
-      <c r="P245" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q245" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
@@ -13515,12 +12039,6 @@
       <c r="O246" s="1">
         <v>72.801000000000002</v>
       </c>
-      <c r="P246" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q246" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -13568,12 +12086,6 @@
       <c r="O247" s="1">
         <v>1250882</v>
       </c>
-      <c r="P247" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q247" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -13621,12 +12133,6 @@
       <c r="O248" s="1">
         <v>11977.57496</v>
       </c>
-      <c r="P248" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q248" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
@@ -13674,12 +12180,6 @@
       <c r="O249" s="1">
         <v>76.194999999999993</v>
       </c>
-      <c r="P249" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q249" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
@@ -13727,12 +12227,6 @@
       <c r="O250" s="1">
         <v>108700891</v>
       </c>
-      <c r="P250" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q250" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -13780,12 +12274,6 @@
       <c r="O251" s="1">
         <v>3095.7722709999998</v>
       </c>
-      <c r="P251" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q251" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
@@ -13833,12 +12321,6 @@
       <c r="O252" s="1">
         <v>66.802999999999997</v>
       </c>
-      <c r="P252" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q252" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -13886,12 +12368,6 @@
       <c r="O253" s="1">
         <v>2874127</v>
       </c>
-      <c r="P253" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q253" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -13939,12 +12415,6 @@
       <c r="O254" s="1">
         <v>9253.896111</v>
       </c>
-      <c r="P254" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q254" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -13992,12 +12462,6 @@
       <c r="O255" s="1">
         <v>74.543000000000006</v>
       </c>
-      <c r="P255" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q255" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -14045,12 +12509,6 @@
       <c r="O256" s="1">
         <v>684736</v>
       </c>
-      <c r="P256" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q256" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
@@ -14098,12 +12556,6 @@
       <c r="O257" s="1">
         <v>3820.1752299999998</v>
       </c>
-      <c r="P257" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q257" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -14151,12 +12603,6 @@
       <c r="O258" s="1">
         <v>71.164000000000001</v>
       </c>
-      <c r="P258" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q258" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -14204,12 +12650,6 @@
       <c r="O259" s="1">
         <v>33757175</v>
       </c>
-      <c r="P259" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q259" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
@@ -14257,12 +12697,6 @@
       <c r="O260" s="1">
         <v>823.68562050000003</v>
       </c>
-      <c r="P260" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q260" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -14310,12 +12744,6 @@
       <c r="O261" s="1">
         <v>42.082000000000001</v>
       </c>
-      <c r="P261" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q261" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -14363,12 +12791,6 @@
       <c r="O262" s="1">
         <v>19951656</v>
       </c>
-      <c r="P262" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q262" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -14416,12 +12838,6 @@
       <c r="O263" s="1">
         <v>944</v>
       </c>
-      <c r="P263" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q263" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -14469,12 +12885,6 @@
       <c r="O264" s="1">
         <v>62.069000000000003</v>
       </c>
-      <c r="P264" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q264" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -14522,12 +12932,6 @@
       <c r="O265" s="1">
         <v>47761980</v>
       </c>
-      <c r="P265" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q265" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -14575,12 +12979,6 @@
       <c r="O266" s="1">
         <v>4811.0604290000001</v>
       </c>
-      <c r="P266" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q266" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -14628,12 +13026,6 @@
       <c r="O267" s="1">
         <v>52.905999999999999</v>
       </c>
-      <c r="P267" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q267" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -14681,12 +13073,6 @@
       <c r="O268" s="1">
         <v>2055080</v>
       </c>
-      <c r="P268" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q268" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -14734,12 +13120,6 @@
       <c r="O269" s="1">
         <v>1091.359778</v>
       </c>
-      <c r="P269" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q269" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
@@ -14787,12 +13167,6 @@
       <c r="O270" s="1">
         <v>63.784999999999997</v>
       </c>
-      <c r="P270" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q270" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -14840,12 +13214,6 @@
       <c r="O271" s="1">
         <v>28901790</v>
       </c>
-      <c r="P271" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q271" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -14893,12 +13261,6 @@
       <c r="O272" s="1">
         <v>36797.933319999996</v>
       </c>
-      <c r="P272" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q272" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
@@ -14946,12 +13308,6 @@
       <c r="O273" s="1">
         <v>79.762</v>
       </c>
-      <c r="P273" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q273" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -14999,12 +13355,6 @@
       <c r="O274" s="1">
         <v>16570613</v>
       </c>
-      <c r="P274" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q274" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -15052,12 +13402,6 @@
       <c r="O275" s="1">
         <v>25185.009109999999</v>
       </c>
-      <c r="P275" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q275" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -15105,12 +13449,6 @@
       <c r="O276" s="1">
         <v>80.203999999999994</v>
       </c>
-      <c r="P276" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q276" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -15158,12 +13496,6 @@
       <c r="O277" s="1">
         <v>4115771</v>
       </c>
-      <c r="P277" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q277" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -15211,12 +13543,6 @@
       <c r="O278" s="1">
         <v>2749.3209649999999</v>
       </c>
-      <c r="P278" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q278" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -15264,12 +13590,6 @@
       <c r="O279" s="1">
         <v>72.899000000000001</v>
       </c>
-      <c r="P279" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q279" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -15317,12 +13637,6 @@
       <c r="O280" s="1">
         <v>5675356</v>
       </c>
-      <c r="P280" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q280" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
@@ -15370,12 +13684,6 @@
       <c r="O281" s="1">
         <v>619.67689240000004</v>
       </c>
-      <c r="P281" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q281" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
@@ -15423,12 +13731,6 @@
       <c r="O282" s="1">
         <v>56.866999999999997</v>
       </c>
-      <c r="P282" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q282" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -15476,12 +13778,6 @@
       <c r="O283" s="1">
         <v>12894865</v>
       </c>
-      <c r="P283" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q283" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
@@ -15529,12 +13825,6 @@
       <c r="O284" s="1">
         <v>2013.9773049999999</v>
       </c>
-      <c r="P284" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q284" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -15582,12 +13872,6 @@
       <c r="O285" s="1">
         <v>46.859000000000002</v>
       </c>
-      <c r="P285" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q285" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -15635,12 +13919,6 @@
       <c r="O286" s="1">
         <v>135031164</v>
       </c>
-      <c r="P286" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q286" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -15688,12 +13966,6 @@
       <c r="O287" s="1">
         <v>49357.190170000002</v>
       </c>
-      <c r="P287" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q287" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
@@ -15741,12 +14013,6 @@
       <c r="O288" s="1">
         <v>80.195999999999998</v>
       </c>
-      <c r="P288" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q288" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -15794,12 +14060,6 @@
       <c r="O289" s="1">
         <v>4627926</v>
       </c>
-      <c r="P289" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q289" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -15847,12 +14107,6 @@
       <c r="O290" s="1">
         <v>22316.192869999999</v>
       </c>
-      <c r="P290" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q290" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -15900,12 +14154,6 @@
       <c r="O291" s="1">
         <v>75.640000000000001</v>
       </c>
-      <c r="P291" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q291" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -15953,12 +14201,6 @@
       <c r="O292" s="1">
         <v>3204897</v>
       </c>
-      <c r="P292" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q292" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -16006,12 +14248,6 @@
       <c r="O293" s="1">
         <v>2605.94758</v>
       </c>
-      <c r="P293" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q293" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -16059,12 +14295,6 @@
       <c r="O294" s="1">
         <v>65.483000000000004</v>
       </c>
-      <c r="P294" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q294" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -16112,12 +14342,6 @@
       <c r="O295" s="1">
         <v>169270617</v>
       </c>
-      <c r="P295" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q295" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
@@ -16165,12 +14389,6 @@
       <c r="O296" s="1">
         <v>9809.1856360000002</v>
       </c>
-      <c r="P296" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q296" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -16218,12 +14436,6 @@
       <c r="O297" s="1">
         <v>75.537000000000006</v>
       </c>
-      <c r="P297" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q297" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -16271,12 +14483,6 @@
       <c r="O298" s="1">
         <v>3242173</v>
       </c>
-      <c r="P298" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q298" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -16324,12 +14530,6 @@
       <c r="O299" s="1">
         <v>4172.8384640000004</v>
       </c>
-      <c r="P299" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q299" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -16377,12 +14577,6 @@
       <c r="O300" s="1">
         <v>71.751999999999995</v>
       </c>
-      <c r="P300" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q300" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -16430,12 +14624,6 @@
       <c r="O301" s="1">
         <v>6667147</v>
       </c>
-      <c r="P301" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q301" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
@@ -16483,12 +14671,6 @@
       <c r="O302" s="1">
         <v>7408.9055609999996</v>
       </c>
-      <c r="P302" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q302" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
@@ -16536,12 +14718,6 @@
       <c r="O303" s="1">
         <v>71.421000000000006</v>
       </c>
-      <c r="P303" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q303" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -16589,12 +14765,6 @@
       <c r="O304" s="1">
         <v>28674757</v>
       </c>
-      <c r="P304" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q304" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -16642,12 +14812,6 @@
       <c r="O305" s="1">
         <v>3190.4810160000002</v>
       </c>
-      <c r="P305" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q305" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
@@ -16695,12 +14859,6 @@
       <c r="O306" s="1">
         <v>71.688000000000002</v>
       </c>
-      <c r="P306" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q306" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -16748,12 +14906,6 @@
       <c r="O307" s="1">
         <v>91077287</v>
       </c>
-      <c r="P307" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q307" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -16801,12 +14953,6 @@
       <c r="O308" s="1">
         <v>15389.92468</v>
       </c>
-      <c r="P308" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q308" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
@@ -16854,12 +15000,6 @@
       <c r="O309" s="1">
         <v>75.563000000000002</v>
       </c>
-      <c r="P309" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q309" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
@@ -16907,12 +15047,6 @@
       <c r="O310" s="1">
         <v>38518241</v>
       </c>
-      <c r="P310" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q310" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -16960,12 +15094,6 @@
       <c r="O311" s="1">
         <v>20509.64777</v>
       </c>
-      <c r="P311" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q311" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -17013,12 +15141,6 @@
       <c r="O312" s="1">
         <v>78.097999999999999</v>
       </c>
-      <c r="P312" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q312" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -17066,12 +15188,6 @@
       <c r="O313" s="1">
         <v>10642836</v>
       </c>
-      <c r="P313" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q313" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -17119,12 +15235,6 @@
       <c r="O314" s="1">
         <v>19328.709009999999</v>
       </c>
-      <c r="P314" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q314" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -17172,12 +15282,6 @@
       <c r="O315" s="1">
         <v>78.745999999999995</v>
       </c>
-      <c r="P315" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q315" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -17225,12 +15329,6 @@
       <c r="O316" s="1">
         <v>3942491</v>
       </c>
-      <c r="P316" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q316" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
@@ -17278,12 +15376,6 @@
       <c r="O317" s="1">
         <v>7670.122558</v>
       </c>
-      <c r="P317" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q317" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
@@ -17331,12 +15423,6 @@
       <c r="O318" s="1">
         <v>76.441999999999993</v>
       </c>
-      <c r="P318" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q318" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -17384,12 +15470,6 @@
       <c r="O319" s="1">
         <v>798094</v>
       </c>
-      <c r="P319" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q319" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -17437,12 +15517,6 @@
       <c r="O320" s="1">
         <v>10808.47561</v>
       </c>
-      <c r="P320" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q320" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
@@ -17490,12 +15564,6 @@
       <c r="O321" s="1">
         <v>72.475999999999999</v>
       </c>
-      <c r="P321" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q321" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
@@ -17543,12 +15611,6 @@
       <c r="O322" s="1">
         <v>22276056</v>
       </c>
-      <c r="P322" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q322" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -17596,12 +15658,6 @@
       <c r="O323" s="1">
         <v>863.08846389999997</v>
       </c>
-      <c r="P323" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q323" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -17649,12 +15705,6 @@
       <c r="O324" s="1">
         <v>46.241999999999997</v>
       </c>
-      <c r="P324" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q324" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -17702,12 +15752,6 @@
       <c r="O325" s="1">
         <v>8860588</v>
       </c>
-      <c r="P325" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q325" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
@@ -17755,12 +15799,6 @@
       <c r="O326" s="1">
         <v>1598.4350890000001</v>
       </c>
-      <c r="P326" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q326" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -17808,12 +15846,6 @@
       <c r="O327" s="1">
         <v>65.528000000000006</v>
       </c>
-      <c r="P327" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q327" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -17861,12 +15893,6 @@
       <c r="O328" s="1">
         <v>199579</v>
       </c>
-      <c r="P328" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q328" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -17914,12 +15940,6 @@
       <c r="O329" s="1">
         <v>21654.83194</v>
       </c>
-      <c r="P329" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q329" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
@@ -17967,12 +15987,6 @@
       <c r="O330" s="1">
         <v>72.777000000000001</v>
       </c>
-      <c r="P330" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q330" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -18020,12 +16034,6 @@
       <c r="O331" s="1">
         <v>27601038</v>
       </c>
-      <c r="P331" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q331" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -18073,12 +16081,6 @@
       <c r="O332" s="1">
         <v>1712.4721360000001</v>
       </c>
-      <c r="P332" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q332" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -18126,12 +16128,6 @@
       <c r="O333" s="1">
         <v>63.061999999999998</v>
       </c>
-      <c r="P333" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q333" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -18179,12 +16175,6 @@
       <c r="O334" s="1">
         <v>12267493</v>
       </c>
-      <c r="P334" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q334" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -18232,12 +16222,6 @@
       <c r="O335" s="1">
         <v>9786.5347139999994</v>
       </c>
-      <c r="P335" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q335" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -18285,12 +16269,6 @@
       <c r="O336" s="1">
         <v>74.001999999999995</v>
       </c>
-      <c r="P336" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q336" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
@@ -18338,12 +16316,6 @@
       <c r="O337" s="1">
         <v>10150265</v>
       </c>
-      <c r="P337" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q337" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
@@ -18391,12 +16363,6 @@
       <c r="O338" s="1">
         <v>862.54075609999995</v>
       </c>
-      <c r="P338" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q338" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -18444,12 +16410,6 @@
       <c r="O339" s="1">
         <v>42.567999999999998</v>
       </c>
-      <c r="P339" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q339" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
@@ -18497,12 +16457,6 @@
       <c r="O340" s="1">
         <v>6144562</v>
       </c>
-      <c r="P340" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q340" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
@@ -18550,12 +16504,6 @@
       <c r="O341" s="1">
         <v>47143.179640000002</v>
       </c>
-      <c r="P341" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q341" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
@@ -18603,12 +16551,6 @@
       <c r="O342" s="1">
         <v>79.971999999999994</v>
       </c>
-      <c r="P342" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q342" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -18656,12 +16598,6 @@
       <c r="O343" s="1">
         <v>4553009</v>
       </c>
-      <c r="P343" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q343" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
@@ -18709,12 +16645,6 @@
       <c r="O344" s="1">
         <v>18678.314350000001</v>
       </c>
-      <c r="P344" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q344" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
@@ -18762,12 +16692,6 @@
       <c r="O345" s="1">
         <v>74.662999999999997</v>
       </c>
-      <c r="P345" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q345" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
@@ -18815,12 +16739,6 @@
       <c r="O346" s="1">
         <v>5447502</v>
       </c>
-      <c r="P346" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q346" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -18868,12 +16786,6 @@
       <c r="O347" s="1">
         <v>25768.257590000001</v>
       </c>
-      <c r="P347" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q347" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -18921,12 +16833,6 @@
       <c r="O348" s="1">
         <v>77.926000000000002</v>
       </c>
-      <c r="P348" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q348" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -18974,12 +16880,6 @@
       <c r="O349" s="1">
         <v>2009245</v>
       </c>
-      <c r="P349" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q349" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -19027,12 +16927,6 @@
       <c r="O350" s="1">
         <v>926.14106830000003</v>
       </c>
-      <c r="P350" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q350" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -19080,12 +16974,6 @@
       <c r="O351" s="1">
         <v>48.158999999999999</v>
       </c>
-      <c r="P351" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q351" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
@@ -19133,12 +17021,6 @@
       <c r="O352" s="1">
         <v>9118773</v>
       </c>
-      <c r="P352" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q352" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -19186,12 +17068,6 @@
       <c r="O353" s="1">
         <v>9269.6578079999999</v>
       </c>
-      <c r="P353" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q353" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
@@ -19239,12 +17115,6 @@
       <c r="O354" s="1">
         <v>49.338999999999999</v>
       </c>
-      <c r="P354" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q354" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -19292,12 +17162,6 @@
       <c r="O355" s="1">
         <v>43997828</v>
       </c>
-      <c r="P355" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q355" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -19345,12 +17209,6 @@
       <c r="O356" s="1">
         <v>28821.063699999999</v>
       </c>
-      <c r="P356" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q356" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -19398,12 +17256,6 @@
       <c r="O357" s="1">
         <v>80.941000000000003</v>
       </c>
-      <c r="P357" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q357" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
@@ -19451,12 +17303,6 @@
       <c r="O358" s="1">
         <v>40448191</v>
       </c>
-      <c r="P358" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q358" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -19504,12 +17350,6 @@
       <c r="O359" s="1">
         <v>3970.0954069999998</v>
       </c>
-      <c r="P359" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q359" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
@@ -19557,12 +17397,6 @@
       <c r="O360" s="1">
         <v>72.396000000000001</v>
       </c>
-      <c r="P360" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q360" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
@@ -19610,12 +17444,6 @@
       <c r="O361" s="1">
         <v>20378239</v>
       </c>
-      <c r="P361" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q361" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
@@ -19663,12 +17491,6 @@
       <c r="O362" s="1">
         <v>2602.3949950000001</v>
       </c>
-      <c r="P362" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q362" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -19716,12 +17538,6 @@
       <c r="O363" s="1">
         <v>58.555999999999997</v>
       </c>
-      <c r="P363" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q363" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -19769,12 +17585,6 @@
       <c r="O364" s="1">
         <v>42292929</v>
       </c>
-      <c r="P364" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q364" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
@@ -19822,12 +17632,6 @@
       <c r="O365" s="1">
         <v>4513.4806429999999</v>
       </c>
-      <c r="P365" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q365" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
@@ -19875,12 +17679,6 @@
       <c r="O366" s="1">
         <v>39.613</v>
       </c>
-      <c r="P366" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q366" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -19928,12 +17726,6 @@
       <c r="O367" s="1">
         <v>1133066</v>
       </c>
-      <c r="P367" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q367" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
@@ -19981,12 +17773,6 @@
       <c r="O368" s="1">
         <v>33859.748350000002</v>
       </c>
-      <c r="P368" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q368" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
@@ -20034,12 +17820,6 @@
       <c r="O369" s="1">
         <v>80.884</v>
       </c>
-      <c r="P369" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q369" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
@@ -20087,12 +17867,6 @@
       <c r="O370" s="1">
         <v>9031088</v>
       </c>
-      <c r="P370" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q370" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -20140,12 +17914,6 @@
       <c r="O371" s="1">
         <v>37506.419070000004</v>
       </c>
-      <c r="P371" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q371" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
@@ -20193,12 +17961,6 @@
       <c r="O372" s="1">
         <v>81.700999999999993</v>
       </c>
-      <c r="P372" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q372" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -20246,12 +18008,6 @@
       <c r="O373" s="1">
         <v>7554661</v>
       </c>
-      <c r="P373" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q373" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
@@ -20299,12 +18055,6 @@
       <c r="O374" s="1">
         <v>4184.5480889999999</v>
       </c>
-      <c r="P374" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q374" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
@@ -20352,12 +18102,6 @@
       <c r="O375" s="1">
         <v>74.143000000000001</v>
       </c>
-      <c r="P375" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q375" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
@@ -20405,12 +18149,6 @@
       <c r="O376" s="1">
         <v>19314747</v>
       </c>
-      <c r="P376" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q376" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
@@ -20458,12 +18196,6 @@
       <c r="O377" s="1">
         <v>28718.276839999999</v>
       </c>
-      <c r="P377" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q377" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
@@ -20511,12 +18243,6 @@
       <c r="O378" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="P378" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q378" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -20564,12 +18290,6 @@
       <c r="O379" s="1">
         <v>23174294</v>
       </c>
-      <c r="P379" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q379" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
@@ -20617,12 +18337,6 @@
       <c r="O380" s="1">
         <v>1107.482182</v>
       </c>
-      <c r="P380" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q380" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
@@ -20670,12 +18384,6 @@
       <c r="O381" s="1">
         <v>52.517000000000003</v>
       </c>
-      <c r="P381" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q381" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
@@ -20723,12 +18431,6 @@
       <c r="O382" s="1">
         <v>38139640</v>
       </c>
-      <c r="P382" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q382" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
@@ -20776,12 +18478,6 @@
       <c r="O383" s="1">
         <v>7458.3963270000004</v>
       </c>
-      <c r="P383" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q383" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
@@ -20829,12 +18525,6 @@
       <c r="O384" s="1">
         <v>70.616</v>
       </c>
-      <c r="P384" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q384" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
@@ -20882,12 +18572,6 @@
       <c r="O385" s="1">
         <v>65068149</v>
       </c>
-      <c r="P385" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q385" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
@@ -20935,12 +18619,6 @@
       <c r="O386" s="1">
         <v>882.96994380000001</v>
       </c>
-      <c r="P386" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q386" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -20988,12 +18666,6 @@
       <c r="O387" s="1">
         <v>58.420000000000002</v>
       </c>
-      <c r="P387" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q387" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -21041,12 +18713,6 @@
       <c r="O388" s="1">
         <v>5701579</v>
       </c>
-      <c r="P388" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q388" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -21094,12 +18760,6 @@
       <c r="O389" s="1">
         <v>18008.509239999999</v>
       </c>
-      <c r="P389" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q389" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
@@ -21147,12 +18807,6 @@
       <c r="O390" s="1">
         <v>69.819000000000003</v>
       </c>
-      <c r="P390" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q390" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -21200,12 +18854,6 @@
       <c r="O391" s="1">
         <v>1056608</v>
       </c>
-      <c r="P391" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q391" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
@@ -21253,12 +18901,6 @@
       <c r="O392" s="1">
         <v>7092.9230250000001</v>
       </c>
-      <c r="P392" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q392" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -21306,12 +18948,6 @@
       <c r="O393" s="1">
         <v>73.923000000000002</v>
       </c>
-      <c r="P393" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q393" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
@@ -21359,12 +18995,6 @@
       <c r="O394" s="1">
         <v>10276158</v>
       </c>
-      <c r="P394" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q394" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -21412,12 +19042,6 @@
       <c r="O395" s="1">
         <v>8458.2763840000007</v>
       </c>
-      <c r="P395" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q395" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
@@ -21465,12 +19089,6 @@
       <c r="O396" s="1">
         <v>71.777000000000001</v>
       </c>
-      <c r="P396" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q396" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
@@ -21518,12 +19136,6 @@
       <c r="O397" s="1">
         <v>71158647</v>
       </c>
-      <c r="P397" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q397" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
@@ -21571,12 +19183,6 @@
       <c r="O398" s="1">
         <v>1056.3801209999999</v>
       </c>
-      <c r="P398" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q398" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -21624,12 +19230,6 @@
       <c r="O399" s="1">
         <v>51.542000000000002</v>
       </c>
-      <c r="P399" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q399" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -21677,12 +19277,6 @@
       <c r="O400" s="1">
         <v>29170398</v>
       </c>
-      <c r="P400" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q400" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -21730,12 +19324,6 @@
       <c r="O401" s="1">
         <v>33203.261279999999</v>
       </c>
-      <c r="P401" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q401" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
@@ -21783,12 +19371,6 @@
       <c r="O402" s="1">
         <v>79.424999999999997</v>
       </c>
-      <c r="P402" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q402" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -21836,12 +19418,6 @@
       <c r="O403" s="1">
         <v>60776238</v>
       </c>
-      <c r="P403" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q403" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -21889,12 +19465,6 @@
       <c r="O404" s="1">
         <v>42951.65309</v>
       </c>
-      <c r="P404" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q404" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -21942,12 +19512,6 @@
       <c r="O405" s="1">
         <v>78.242000000000004</v>
       </c>
-      <c r="P405" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q405" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
@@ -21995,12 +19559,6 @@
       <c r="O406" s="1">
         <v>301139947</v>
       </c>
-      <c r="P406" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q406" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -22048,12 +19606,6 @@
       <c r="O407" s="1">
         <v>10611.46299</v>
       </c>
-      <c r="P407" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q407" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
@@ -22101,12 +19653,6 @@
       <c r="O408" s="1">
         <v>76.384</v>
       </c>
-      <c r="P408" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q408" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
@@ -22154,12 +19700,6 @@
       <c r="O409" s="1">
         <v>3447496</v>
       </c>
-      <c r="P409" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q409" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
@@ -22207,12 +19747,6 @@
       <c r="O410" s="1">
         <v>11415.805689999999</v>
       </c>
-      <c r="P410" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q410" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
@@ -22260,12 +19794,6 @@
       <c r="O411" s="1">
         <v>73.747</v>
       </c>
-      <c r="P411" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q411" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
@@ -22313,12 +19841,6 @@
       <c r="O412" s="1">
         <v>26084662</v>
       </c>
-      <c r="P412" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q412" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
@@ -22366,12 +19888,6 @@
       <c r="O413" s="1">
         <v>2441.5764039999999</v>
       </c>
-      <c r="P413" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q413" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
@@ -22419,12 +19935,6 @@
       <c r="O414" s="1">
         <v>74.248999999999995</v>
       </c>
-      <c r="P414" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q414" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
@@ -22472,12 +19982,6 @@
       <c r="O415" s="1">
         <v>85262356</v>
       </c>
-      <c r="P415" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q415" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
@@ -22525,12 +20029,6 @@
       <c r="O416" s="1">
         <v>3025.3497980000002</v>
       </c>
-      <c r="P416" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q416" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
@@ -22578,12 +20076,6 @@
       <c r="O417" s="1">
         <v>73.421999999999997</v>
       </c>
-      <c r="P417" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q417" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
@@ -22631,12 +20123,6 @@
       <c r="O418" s="1">
         <v>4018332</v>
       </c>
-      <c r="P418" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q418" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
@@ -22684,12 +20170,6 @@
       <c r="O419" s="1">
         <v>2280.769906</v>
       </c>
-      <c r="P419" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q419" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
@@ -22737,12 +20217,6 @@
       <c r="O420" s="1">
         <v>62.698</v>
       </c>
-      <c r="P420" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q420" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
@@ -22790,12 +20264,6 @@
       <c r="O421" s="1">
         <v>22211743</v>
       </c>
-      <c r="P421" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q421" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
@@ -22841,12 +20309,6 @@
       <c r="O422" s="1">
         <v>1271.211593</v>
       </c>
-      <c r="P422" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q422" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -22892,12 +20354,6 @@
       <c r="O423" s="1">
         <v>42.384</v>
       </c>
-      <c r="P423" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q423" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -22943,12 +20399,6 @@
       <c r="O424" s="1">
         <v>11746035</v>
       </c>
-      <c r="P424" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q424" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
@@ -22994,12 +20444,6 @@
       <c r="O425" s="1">
         <v>469.70929810000001</v>
       </c>
-      <c r="P425" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q425" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
@@ -23045,12 +20489,6 @@
       <c r="O426" s="1">
         <v>43.487000000000002</v>
       </c>
-      <c r="P426" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q426" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -23096,12 +20534,6 @@
       <c r="O427" s="1">
         <v>12311143</v>
       </c>
-      <c r="P427" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q427" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
